--- a/ppt/지영 _감귤 생산량/2007_18년 전국감귤생산량,제주도내출하량 10년치.xlsx
+++ b/ppt/지영 _감귤 생산량/2007_18년 전국감귤생산량,제주도내출하량 10년치.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workR\1-project\ppt\지영 _감귤 생산량\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A83611-83CD-4187-B498-F4B731667E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B946197-6856-4334-91EA-233FFB722710}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="11520" xr2:uid="{6CC274D9-5164-48A2-8D82-675129EA1764}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>21</t>
   </si>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>제주도내생산량 천t</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>도외상품 출하량 천t</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,6 +300,15 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -613,19 +626,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9B281D-CE26-48C1-BADB-92709AB610ED}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I5" sqref="H4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56.25">
+    <row r="1" spans="1:5" ht="42.75">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -638,8 +652,11 @@
       <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25">
+      <c r="E1" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25">
       <c r="A2" s="1">
         <v>2007</v>
       </c>
@@ -652,8 +669,11 @@
       <c r="D2" s="3">
         <v>747</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25">
+      <c r="E2" s="14">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25">
       <c r="A3" s="4">
         <v>2008</v>
       </c>
@@ -666,8 +686,11 @@
       <c r="D3" s="6">
         <v>592</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25">
+      <c r="E3" s="14">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="4">
         <v>2009</v>
       </c>
@@ -680,8 +703,11 @@
       <c r="D4" s="7">
         <v>741</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.25">
+      <c r="E4" s="14">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.25">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -694,8 +720,11 @@
       <c r="D5" s="6">
         <v>568</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.25">
+      <c r="E5" s="14">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.25">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -708,8 +737,11 @@
       <c r="D6" s="6">
         <v>588</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.25">
+      <c r="E6" s="14">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.25">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -722,8 +754,11 @@
       <c r="D7" s="8">
         <v>668</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.25">
+      <c r="E7" s="14">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -736,8 +771,11 @@
       <c r="D8" s="8">
         <v>672</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.25">
+      <c r="E8" s="14">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.25">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -750,8 +788,11 @@
       <c r="D9" s="9">
         <v>696</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.25">
+      <c r="E9" s="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.25">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -764,8 +805,11 @@
       <c r="D10" s="8">
         <v>635</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.25">
+      <c r="E10" s="14">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.25">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -778,8 +822,11 @@
       <c r="D11" s="8">
         <v>599</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.25">
+      <c r="E11" s="14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.25">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -792,8 +839,11 @@
       <c r="D12" s="11">
         <v>576</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.25">
+      <c r="E12" s="16">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.25">
       <c r="A13" s="4">
         <v>2018</v>
       </c>
@@ -805,10 +855,14 @@
       </c>
       <c r="D13" s="8">
         <v>607</v>
+      </c>
+      <c r="E13" s="14">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>